--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,351 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111896686</v>
+      </c>
+      <c r="B4" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>575755.4490459578</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6703741.960185026</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111896603</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>575827.257356453</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6703781.946704933</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111896689</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>575759.4008215864</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6703742.042864766</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896686</v>
+        <v>111896603</v>
       </c>
       <c r="B4" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,34 +927,42 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575755.4490459578</v>
+        <v>575827.257356453</v>
       </c>
       <c r="R4" t="n">
-        <v>6703741.960185026</v>
+        <v>6703781.946704933</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1023,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896603</v>
+        <v>111896689</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,46 +1043,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575827.257356453</v>
+        <v>575759.4008215864</v>
       </c>
       <c r="R5" t="n">
-        <v>6703781.946704933</v>
+        <v>6703742.042864766</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1125,6 +1125,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1143,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896689</v>
+        <v>111896686</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>88966</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>5754</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575759.4008215864</v>
+        <v>575755.4490459578</v>
       </c>
       <c r="R6" t="n">
-        <v>6703742.042864766</v>
+        <v>6703741.960185026</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1237,7 +1238,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896603</v>
+        <v>111896686</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>88966</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,42 +927,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575827.257356453</v>
+        <v>575755.4490459578</v>
       </c>
       <c r="R4" t="n">
-        <v>6703781.946704933</v>
+        <v>6703741.960185026</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1031,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896689</v>
+        <v>111896603</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,38 +1035,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575759.4008215864</v>
+        <v>575827.257356453</v>
       </c>
       <c r="R5" t="n">
-        <v>6703742.042864766</v>
+        <v>6703781.946704933</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1125,7 +1125,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1144,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896686</v>
+        <v>111896689</v>
       </c>
       <c r="B6" t="n">
-        <v>88966</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1155,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5754</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575755.4490459578</v>
+        <v>575759.4008215864</v>
       </c>
       <c r="R6" t="n">
-        <v>6703741.960185026</v>
+        <v>6703742.042864766</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1238,6 +1237,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896686</v>
+        <v>111896689</v>
       </c>
       <c r="B4" t="n">
-        <v>88966</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5754</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575755.4490459578</v>
+        <v>575759.4008215864</v>
       </c>
       <c r="R4" t="n">
-        <v>6703741.960185026</v>
+        <v>6703742.042864766</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1005,6 +1005,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1143,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896689</v>
+        <v>111896686</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>88966</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>5754</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575759.4008215864</v>
+        <v>575755.4490459578</v>
       </c>
       <c r="R6" t="n">
-        <v>6703742.042864766</v>
+        <v>6703741.960185026</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1237,7 +1238,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896603</v>
+        <v>111896686</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>88966</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,42 +1040,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575827.257356453</v>
+        <v>575755.4490459578</v>
       </c>
       <c r="R5" t="n">
-        <v>6703781.946704933</v>
+        <v>6703741.960185026</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1144,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896686</v>
+        <v>111896603</v>
       </c>
       <c r="B6" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,34 +1152,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575755.4490459578</v>
+        <v>575827.257356453</v>
       </c>
       <c r="R6" t="n">
-        <v>6703741.960185026</v>
+        <v>6703781.946704933</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896689</v>
+        <v>111896686</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>88966</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>5754</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575759.4008215864</v>
+        <v>575755.4490459578</v>
       </c>
       <c r="R4" t="n">
-        <v>6703742.042864766</v>
+        <v>6703741.960185026</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1005,7 +1005,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1024,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896686</v>
+        <v>111896689</v>
       </c>
       <c r="B5" t="n">
-        <v>88966</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1035,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5754</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575755.4490459578</v>
+        <v>575759.4008215864</v>
       </c>
       <c r="R5" t="n">
-        <v>6703741.960185026</v>
+        <v>6703742.042864766</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1118,6 +1117,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,6 +1254,122 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>109714023</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89790</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6040186</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Leptoporus mollis</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Dammsjön, Gstr</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>575782.5865376759</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6703744.008187429</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>07:49</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>07:49</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På gran</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575755.4490459578</v>
+        <v>575755</v>
       </c>
       <c r="R4" t="n">
-        <v>6703741.960185026</v>
+        <v>6703742</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -984,19 +984,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1063,10 +1053,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575759.4008215864</v>
+        <v>575759</v>
       </c>
       <c r="R5" t="n">
-        <v>6703742.042864766</v>
+        <v>6703742</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1096,19 +1086,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1184,10 +1164,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575827.257356453</v>
+        <v>575827</v>
       </c>
       <c r="R6" t="n">
-        <v>6703781.946704933</v>
+        <v>6703782</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1217,19 +1197,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1294,10 +1264,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575782.5865376759</v>
+        <v>575783</v>
       </c>
       <c r="R7" t="n">
-        <v>6703744.008187429</v>
+        <v>6703744</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896686</v>
+        <v>111896689</v>
       </c>
       <c r="B4" t="n">
-        <v>88966</v>
+        <v>90821</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5754</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575755</v>
+        <v>575759</v>
       </c>
       <c r="R4" t="n">
         <v>6703742</v>
@@ -995,6 +995,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1013,10 +1014,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896689</v>
+        <v>111896603</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>56575</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,38 +1026,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575759</v>
+        <v>575827</v>
       </c>
       <c r="R5" t="n">
-        <v>6703742</v>
+        <v>6703782</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1097,7 +1106,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1116,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896603</v>
+        <v>111896686</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>89100</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1132,42 +1140,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575827</v>
+        <v>575755</v>
       </c>
       <c r="R6" t="n">
-        <v>6703782</v>
+        <v>6703742</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1229,7 +1229,7 @@
         <v>109714023</v>
       </c>
       <c r="B7" t="n">
-        <v>89790</v>
+        <v>89924</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>

--- a/artfynd/A 13750-2023.xlsx
+++ b/artfynd/A 13750-2023.xlsx
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896689</v>
+        <v>111896603</v>
       </c>
       <c r="B4" t="n">
-        <v>90821</v>
+        <v>56575</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,38 +923,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575759</v>
+        <v>575827</v>
       </c>
       <c r="R4" t="n">
-        <v>6703742</v>
+        <v>6703782</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -995,7 +1003,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1014,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896603</v>
+        <v>111896689</v>
       </c>
       <c r="B5" t="n">
-        <v>56575</v>
+        <v>90835</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1026,46 +1033,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575827</v>
+        <v>575759</v>
       </c>
       <c r="R5" t="n">
-        <v>6703782</v>
+        <v>6703742</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1106,6 +1105,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>111896686</v>
       </c>
       <c r="B6" t="n">
-        <v>89100</v>
+        <v>89114</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>109714023</v>
       </c>
       <c r="B7" t="n">
-        <v>89924</v>
+        <v>89938</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
